--- a/sputnik/personal/ee/59ee.xlsx
+++ b/sputnik/personal/ee/59ee.xlsx
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,7 +36,25 @@
     <t>начислены пени за просрочку оплаты за ээ на 199дн.4999,58 х 159 х 0,1% = 794,93</t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -50,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -70,14 +82,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -111,6 +115,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,34 +150,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -195,24 +178,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -225,54 +195,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,10 +540,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -596,336 +554,227 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5" t="s">
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="20">
-        <v>4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43753</v>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>43400</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>33980</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>43600</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <v>36292</v>
+      <c r="C3" s="3">
+        <v>35074</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C4)</f>
-        <v>445</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>1998.0500000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>SUM(C3,-C2)</f>
+        <v>1094</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3" si="0">D3*E3</f>
+        <v>4999.58</v>
+      </c>
+      <c r="G3" s="12">
+        <v>4999.58</v>
+      </c>
+      <c r="H3" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43697</v>
+        <v>43636</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
-        <v>35847</v>
+      <c r="C4" s="3">
+        <v>35402</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C5)</f>
-        <v>445</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="6">
+        <f>SUM(C4,-C3)</f>
+        <v>328</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="11">
         <f>D4*E4</f>
-        <v>1998.0500000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1498.96</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1498.96</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43636</v>
+        <v>43697</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>35402</v>
+      <c r="C5" s="5">
+        <v>35847</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>328</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F5" s="6">
+        <f t="shared" ref="D5:D6" si="1">SUM(C5,-C4)</f>
+        <v>445</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="11">
         <f>D5*E5</f>
-        <v>1498.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+        <v>1998.0500000000002</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1998.05</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43753</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>36292</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="11">
+        <f>D6*E6</f>
+        <v>1998.0500000000002</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1998.05</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12">
+        <f>SUM(G3:G6)</f>
+        <v>10494.64</v>
+      </c>
+      <c r="H7" s="12">
+        <f>SUM(H3:H6)</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43600</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>43600</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>35074</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" ref="D7:D12" si="0">SUM(C7,-C8)</f>
-        <v>1094</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" ref="F7:F12" si="1">D7*E7</f>
-        <v>4999.58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>43400</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>33980</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43379</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>33780</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>309</v>
-      </c>
-      <c r="E9" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>1390.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43351</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>33471</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>542</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>2439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43295</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>32929</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>351</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>1579.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>32578</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>278</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>1192.6200000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>43225</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>32300</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17">
+        <v>794.93</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="12">
+        <f>SUM(G7,G8)</f>
+        <v>11289.57</v>
+      </c>
+      <c r="H9" s="12">
+        <f>SUM(H7,H8)</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
+        <f>SUM(H9,-G9)</f>
+        <v>-789.56999999999971</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/59ee.xlsx
+++ b/sputnik/personal/ee/59ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
   <si>
     <t>итого с пенями</t>
@@ -543,7 +540,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -716,16 +713,31 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
-        <v>10</v>
+      <c r="A7" s="4">
+        <v>44067</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>37184</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(C7,-C6)</f>
+        <v>892</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="11">
+        <f>D7*E7</f>
+        <v>4201.32</v>
       </c>
       <c r="G7" s="12">
-        <f>SUM(G3:G6)</f>
-        <v>10494.64</v>
+        <v>4201.32</v>
       </c>
       <c r="H7" s="12">
-        <f>SUM(H3:H6)</f>
-        <v>10500</v>
+        <v>4205.07</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -742,7 +754,9 @@
       <c r="G8" s="17">
         <v>794.93</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="17">
+        <v>794.93</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -751,25 +765,25 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="12">
-        <f>SUM(G7,G8)</f>
-        <v>11289.57</v>
+        <f>SUM(G2:G8)</f>
+        <v>15490.89</v>
       </c>
       <c r="H9" s="12">
-        <f>SUM(H7,H8)</f>
-        <v>10500</v>
+        <f>SUM(H2:H8)</f>
+        <v>15500</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12">
         <f>SUM(H9,-G9)</f>
-        <v>-789.56999999999971</v>
+        <v>9.1100000000005821</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/59ee.xlsx
+++ b/sputnik/personal/ee/59ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>к доплате</t>
+  </si>
+  <si>
+    <t>оплачены пени</t>
   </si>
 </sst>
 </file>
@@ -61,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +122,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -165,11 +186,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </top>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -179,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -198,9 +221,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -223,12 +243,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,10 +562,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,7 +599,7 @@
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -585,7 +610,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>43400</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -596,12 +621,12 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>43600</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -617,14 +642,14 @@
       <c r="E3" s="7">
         <v>4.57</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f t="shared" ref="F3" si="0">D3*E3</f>
         <v>4999.58</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="18">
         <v>4999.58</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>5000</v>
       </c>
     </row>
@@ -645,14 +670,14 @@
       <c r="E4" s="7">
         <v>4.57</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>D4*E4</f>
         <v>1498.96</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>1498.96</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>1500</v>
       </c>
     </row>
@@ -673,14 +698,14 @@
       <c r="E5" s="5">
         <v>4.49</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>D5*E5</f>
         <v>1998.0500000000002</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>1998.05</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>2000</v>
       </c>
     </row>
@@ -701,14 +726,14 @@
       <c r="E6" s="5">
         <v>4.49</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>D6*E6</f>
         <v>1998.0500000000002</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>1998.05</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>2000</v>
       </c>
     </row>
@@ -729,67 +754,129 @@
       <c r="E7" s="5">
         <v>4.71</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>D7*E7</f>
         <v>4201.32</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>4201.32</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>4205.07</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43600</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
       <c r="G8" s="17">
         <v>794.93</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>44067</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
         <v>794.93</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44102</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>37651</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM(C10,-C7)</f>
+        <v>467</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="10">
+        <f>D10*E10</f>
+        <v>2199.5700000000002</v>
+      </c>
+      <c r="G10" s="11">
+        <v>2199.5700000000002</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="12">
-        <f>SUM(G2:G8)</f>
-        <v>15490.89</v>
-      </c>
-      <c r="H9" s="12">
-        <f>SUM(H2:H8)</f>
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="G11" s="20">
+        <f>SUM(G2:G10)</f>
+        <v>17690.46</v>
+      </c>
+      <c r="H11" s="20">
+        <f>SUM(H2:H10)</f>
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
-        <f>SUM(H9,-G9)</f>
-        <v>9.1100000000005821</v>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>SUM(H11,-G11)</f>
+        <v>9.5400000000008731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="16" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:F8"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/59ee.xlsx
+++ b/sputnik/personal/ee/59ee.xlsx
@@ -562,10 +562,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -844,37 +844,63 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="19" t="s">
+      <c r="A11" s="4">
+        <v>44137</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>37969</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(C11,-C10)</f>
+        <v>318</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="10">
+        <f>D11*E11</f>
+        <v>1497.78</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1497.78</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="20">
-        <f>SUM(G2:G10)</f>
-        <v>17690.46</v>
-      </c>
-      <c r="H11" s="20">
-        <f>SUM(H2:H10)</f>
-        <v>17700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="20">
+        <f>SUM(G2:G11)</f>
+        <v>19188.239999999998</v>
+      </c>
+      <c r="H12" s="20">
+        <f>SUM(H2:H11)</f>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <f>SUM(H11,-G11)</f>
-        <v>9.5400000000008731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
+        <v>11.760000000002037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/59ee.xlsx
+++ b/sputnik/personal/ee/59ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -562,10 +562,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -872,35 +872,91 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="19" t="s">
+      <c r="A12" s="4">
+        <v>44167</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>38776</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(C12,-C11)</f>
+        <v>807</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="10">
+        <f>D12*E12</f>
+        <v>3800.97</v>
+      </c>
+      <c r="G12" s="11">
+        <v>3800.97</v>
+      </c>
+      <c r="H12" s="11">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44194</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>38884</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(C13,-C12)</f>
+        <v>108</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="10">
+        <f>D13*E13</f>
+        <v>508.68</v>
+      </c>
+      <c r="G13" s="11">
+        <v>508.68</v>
+      </c>
+      <c r="H13" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="20">
-        <f>SUM(G2:G11)</f>
-        <v>19188.239999999998</v>
-      </c>
-      <c r="H12" s="20">
-        <f>SUM(H2:H11)</f>
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+      <c r="G14" s="20">
+        <f>SUM(G2:G13)</f>
+        <v>23497.89</v>
+      </c>
+      <c r="H14" s="20">
+        <f>SUM(H2:H13)</f>
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
-        <v>11.760000000002037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="16"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
+        <v>2.1100000000005821</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/59ee.xlsx
+++ b/sputnik/personal/ee/59ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>оплачены пени</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>новый счетчик</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +154,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,11 +210,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -243,9 +266,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -254,6 +274,26 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,10 +602,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -646,7 +686,7 @@
         <f t="shared" ref="F3" si="0">D3*E3</f>
         <v>4999.58</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="27">
         <v>4999.58</v>
       </c>
       <c r="H3" s="11">
@@ -775,7 +815,7 @@
       <c r="C8" s="15">
         <v>0</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="15">
@@ -784,10 +824,10 @@
       <c r="F8" s="15">
         <v>0</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>794.93</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -808,10 +848,10 @@
       <c r="F9" s="15">
         <v>0</v>
       </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
         <v>794.93</v>
       </c>
     </row>
@@ -833,7 +873,7 @@
         <v>4.71</v>
       </c>
       <c r="F10" s="10">
-        <f>D10*E10</f>
+        <f t="shared" ref="F10:F18" si="2">D10*E10</f>
         <v>2199.5700000000002</v>
       </c>
       <c r="G10" s="11">
@@ -861,7 +901,7 @@
         <v>4.71</v>
       </c>
       <c r="F11" s="10">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>1497.78</v>
       </c>
       <c r="G11" s="11">
@@ -889,7 +929,7 @@
         <v>4.71</v>
       </c>
       <c r="F12" s="10">
-        <f>D12*E12</f>
+        <f t="shared" si="2"/>
         <v>3800.97</v>
       </c>
       <c r="G12" s="11">
@@ -917,7 +957,7 @@
         <v>4.71</v>
       </c>
       <c r="F13" s="10">
-        <f>D13*E13</f>
+        <f t="shared" si="2"/>
         <v>508.68</v>
       </c>
       <c r="G13" s="11">
@@ -928,35 +968,161 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="19" t="s">
+      <c r="A14" s="22">
+        <v>44559</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="24">
+        <v>62</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44243</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>274</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(C16,-C14)</f>
+        <v>212</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="2"/>
+        <v>998.52</v>
+      </c>
+      <c r="G16" s="11">
+        <v>998.52</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44291</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>804</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C16)</f>
+        <v>530</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="2"/>
+        <v>2496.3000000000002</v>
+      </c>
+      <c r="G18" s="11">
+        <v>2496.3000000000002</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="20">
-        <f>SUM(G2:G13)</f>
-        <v>23497.89</v>
-      </c>
-      <c r="H14" s="20">
-        <f>SUM(H2:H13)</f>
-        <v>23500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="G20" s="19">
+        <f>SUM(G14:G19)</f>
+        <v>3494.82</v>
+      </c>
+      <c r="H20" s="19">
+        <f>SUM(H14:H19)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <f>SUM(H14,-G14)</f>
-        <v>2.1100000000005821</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="16"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
+        <f>SUM(H20,-G20)</f>
+        <v>5.1799999999998363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/59ee.xlsx
+++ b/sputnik/personal/ee/59ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -602,10 +602,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1082,47 +1082,87 @@
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="18" t="s">
+      <c r="A20" s="4">
+        <v>44320</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>804</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(C20,-C18)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20:F21" si="3">D20*E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G22" s="19">
         <f>SUM(G14:G19)</f>
         <v>3494.82</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H22" s="19">
         <f>SUM(H14:H19)</f>
         <v>3500</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
+        <f>SUM(H22,-G22)</f>
         <v>5.1799999999998363</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/59ee.xlsx
+++ b/sputnik/personal/ee/59ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -602,10 +602,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1099,7 @@
         <v>4.71</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" ref="F20:F21" si="3">D20*E20</f>
+        <f t="shared" ref="F20" si="3">D20*E20</f>
         <v>0</v>
       </c>
       <c r="G20" s="11">
@@ -1122,47 +1122,87 @@
       <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="18" t="s">
+      <c r="A22" s="4">
+        <v>44336</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>804</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM(C22,-C20)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22" si="4">D22*E22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G24" s="19">
         <f>SUM(G14:G19)</f>
         <v>3494.82</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H24" s="19">
         <f>SUM(H14:H19)</f>
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
         <v>5.1799999999998363</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/59ee.xlsx
+++ b/sputnik/personal/ee/59ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -602,10 +602,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1162,47 +1162,87 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="18" t="s">
+      <c r="A24" s="4">
+        <v>44377</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>804</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(C24,-C22)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" ref="F24" si="5">D24*E24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="19">
-        <f>SUM(G14:G19)</f>
+      <c r="G26" s="19">
+        <f>SUM(G14:G25)</f>
         <v>3494.82</v>
       </c>
-      <c r="H24" s="19">
-        <f>SUM(H14:H19)</f>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="H26" s="19">
+        <f>SUM(H14:H25)</f>
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
-        <v>5.1799999999998363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="25"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11">
+        <f>SUM(H26,-G26)</f>
+        <v>5605.18</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/59ee.xlsx
+++ b/sputnik/personal/ee/59ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -48,12 +48,6 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого с пенями</t>
-  </si>
-  <si>
-    <t>к доплате</t>
-  </si>
-  <si>
     <t>оплачены пени</t>
   </si>
   <si>
@@ -70,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,28 +89,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -225,10 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,25 +225,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -288,7 +247,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -604,8 +563,8 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,625 +583,628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>43400</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>33980</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>43600</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
         <v>35074</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>SUM(C3,-C2)</f>
         <v>1094</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>4.57</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <f t="shared" ref="F3" si="0">D3*E3</f>
         <v>4999.58</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="22">
         <v>4999.58</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43636</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>35402</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>SUM(C4,-C3)</f>
         <v>328</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>4.57</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f>D4*E4</f>
         <v>1498.96</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>1498.96</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43697</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>35847</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D6" si="1">SUM(C5,-C4)</f>
         <v>445</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4.49</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f>D5*E5</f>
         <v>1998.0500000000002</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>1998.05</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43753</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <v>36292</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>4.49</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <f>D6*E6</f>
         <v>1998.0500000000002</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>1998.05</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>44067</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <v>37184</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f>SUM(C7,-C6)</f>
         <v>892</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>4.71</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f>D7*E7</f>
         <v>4201.32</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>4201.32</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>4205.07</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>43600</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
         <v>794.93</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>44067</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
         <v>794.93</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>44102</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
         <v>37651</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f>SUM(C10,-C7)</f>
         <v>467</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>4.71</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f t="shared" ref="F10:F18" si="2">D10*E10</f>
         <v>2199.5700000000002</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>2199.5700000000002</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>2200</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>44137</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
         <v>37969</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f>SUM(C11,-C10)</f>
         <v>318</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>4.71</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f t="shared" si="2"/>
         <v>1497.78</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>1497.78</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>1500</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>44167</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
         <v>38776</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>SUM(C12,-C11)</f>
         <v>807</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>4.71</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <f t="shared" si="2"/>
         <v>3800.97</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>3800.97</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>3800</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>44194</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
         <v>38884</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f>SUM(C13,-C12)</f>
         <v>108</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>4.71</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f t="shared" si="2"/>
         <v>508.68</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>508.68</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="17">
         <v>44559</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="B14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
         <v>62</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="D14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="24">
-        <v>0</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>44243</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
         <v>274</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f>SUM(C16,-C14)</f>
         <v>212</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>4.71</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <f t="shared" si="2"/>
         <v>998.52</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>998.52</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>44291</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
         <v>804</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f>SUM(C18,-C16)</f>
         <v>530</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>4.71</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <f t="shared" si="2"/>
         <v>2496.3000000000002</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>2496.3000000000002</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>2500</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>44320</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>804</v>
-      </c>
-      <c r="D20" s="3">
-        <f>SUM(C20,-C18)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <v>4.71</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f t="shared" ref="F20" si="3">D20*E20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
         <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>44336</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>804</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2">
         <f>SUM(C22,-C20)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>4.71</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <f t="shared" ref="F22" si="4">D22*E22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
         <v>2500</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>44377</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5">
-        <v>804</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2">
         <f>SUM(C24,-C22)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>4.71</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <f t="shared" ref="F24" si="5">D24*E24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
         <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="19">
-        <f>SUM(G14:G25)</f>
-        <v>3494.82</v>
-      </c>
-      <c r="H26" s="19">
-        <f>SUM(H14:H25)</f>
-        <v>9100</v>
+      <c r="A26" s="3">
+        <v>44413</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2">
+        <f>SUM(C26,-C24)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26" si="6">D26*E26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
-        <f>SUM(H26,-G26)</f>
-        <v>5605.18</v>
-      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="25"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/59ee.xlsx
+++ b/sputnik/personal/ee/59ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,12 +99,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -197,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -231,7 +225,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -247,9 +241,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,7 +555,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,7 +636,7 @@
         <f t="shared" ref="F3" si="0">D3*E3</f>
         <v>4999.58</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>4999.58</v>
       </c>
       <c r="H3" s="10">
@@ -940,7 +931,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="19"/>
-      <c r="F14" s="23"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
@@ -954,7 +945,7 @@
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
@@ -1192,14 +1183,42 @@
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="3">
+        <v>44487</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2">
+        <f>SUM(C28,-C26)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" ref="F28" si="7">D28*E28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
